--- a/AAII_Financials/Quarterly/WUBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WUBA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>WUBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>610900</v>
+        <v>581600</v>
       </c>
       <c r="E8" s="3">
-        <v>593200</v>
+        <v>595900</v>
       </c>
       <c r="F8" s="3">
-        <v>434500</v>
+        <v>578700</v>
       </c>
       <c r="G8" s="3">
-        <v>517900</v>
+        <v>423800</v>
       </c>
       <c r="H8" s="3">
-        <v>520400</v>
+        <v>505200</v>
       </c>
       <c r="I8" s="3">
-        <v>492200</v>
+        <v>507600</v>
       </c>
       <c r="J8" s="3">
+        <v>480100</v>
+      </c>
+      <c r="K8" s="3">
         <v>354600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>410300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>404000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>384900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>289200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1104100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>297100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71900</v>
+        <v>79200</v>
       </c>
       <c r="E9" s="3">
-        <v>62300</v>
+        <v>70100</v>
       </c>
       <c r="F9" s="3">
-        <v>42600</v>
+        <v>60800</v>
       </c>
       <c r="G9" s="3">
-        <v>65700</v>
+        <v>41500</v>
       </c>
       <c r="H9" s="3">
-        <v>54600</v>
+        <v>64100</v>
       </c>
       <c r="I9" s="3">
-        <v>49000</v>
+        <v>53300</v>
       </c>
       <c r="J9" s="3">
+        <v>47800</v>
+      </c>
+      <c r="K9" s="3">
         <v>37000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>102900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>539000</v>
+        <v>502400</v>
       </c>
       <c r="E10" s="3">
-        <v>530900</v>
+        <v>525800</v>
       </c>
       <c r="F10" s="3">
-        <v>391900</v>
+        <v>517900</v>
       </c>
       <c r="G10" s="3">
-        <v>452200</v>
+        <v>382300</v>
       </c>
       <c r="H10" s="3">
-        <v>465800</v>
+        <v>441100</v>
       </c>
       <c r="I10" s="3">
-        <v>443200</v>
+        <v>454300</v>
       </c>
       <c r="J10" s="3">
+        <v>432300</v>
+      </c>
+      <c r="K10" s="3">
         <v>317600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>371300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>370200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>350000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>260100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1001300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>271400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>73000</v>
+        <v>78500</v>
       </c>
       <c r="E12" s="3">
-        <v>67400</v>
+        <v>71200</v>
       </c>
       <c r="F12" s="3">
-        <v>69300</v>
+        <v>65800</v>
       </c>
       <c r="G12" s="3">
-        <v>70800</v>
+        <v>67600</v>
       </c>
       <c r="H12" s="3">
-        <v>65600</v>
+        <v>69100</v>
       </c>
       <c r="I12" s="3">
-        <v>54900</v>
+        <v>64000</v>
       </c>
       <c r="J12" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K12" s="3">
         <v>48000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>53100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>55300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>48000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>45700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>161100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -983,11 +1002,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -995,11 +1014,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1007,41 +1026,44 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>-11600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K15" s="3">
         <v>7900</v>
       </c>
-      <c r="E15" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>487200</v>
+        <v>477400</v>
       </c>
       <c r="E17" s="3">
-        <v>454400</v>
+        <v>475300</v>
       </c>
       <c r="F17" s="3">
-        <v>394100</v>
+        <v>443200</v>
       </c>
       <c r="G17" s="3">
-        <v>417000</v>
+        <v>384500</v>
       </c>
       <c r="H17" s="3">
-        <v>424200</v>
+        <v>406800</v>
       </c>
       <c r="I17" s="3">
-        <v>385600</v>
+        <v>413800</v>
       </c>
       <c r="J17" s="3">
+        <v>376200</v>
+      </c>
+      <c r="K17" s="3">
         <v>316300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>319200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>326500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>298400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>277800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1058600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>276200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>123700</v>
+        <v>104200</v>
       </c>
       <c r="E18" s="3">
-        <v>138900</v>
+        <v>120700</v>
       </c>
       <c r="F18" s="3">
-        <v>40400</v>
+        <v>135400</v>
       </c>
       <c r="G18" s="3">
-        <v>100900</v>
+        <v>39400</v>
       </c>
       <c r="H18" s="3">
-        <v>96200</v>
+        <v>98400</v>
       </c>
       <c r="I18" s="3">
-        <v>106600</v>
+        <v>93900</v>
       </c>
       <c r="J18" s="3">
+        <v>104000</v>
+      </c>
+      <c r="K18" s="3">
         <v>38300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>91100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>86400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,66 +1210,70 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11500</v>
+        <v>291700</v>
       </c>
       <c r="E20" s="3">
-        <v>531500</v>
+        <v>11200</v>
       </c>
       <c r="F20" s="3">
-        <v>79500</v>
+        <v>518500</v>
       </c>
       <c r="G20" s="3">
-        <v>-23100</v>
+        <v>77600</v>
       </c>
       <c r="H20" s="3">
-        <v>14900</v>
+        <v>-22600</v>
       </c>
       <c r="I20" s="3">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="J20" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-165400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-50900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>396200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>131900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>654000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>124600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>135200</v>
+        <v>396000</v>
       </c>
       <c r="E23" s="3">
-        <v>670400</v>
+        <v>131900</v>
       </c>
       <c r="F23" s="3">
-        <v>119900</v>
+        <v>653900</v>
       </c>
       <c r="G23" s="3">
-        <v>77700</v>
+        <v>117000</v>
       </c>
       <c r="H23" s="3">
-        <v>111100</v>
+        <v>75800</v>
       </c>
       <c r="I23" s="3">
-        <v>120100</v>
+        <v>108400</v>
       </c>
       <c r="J23" s="3">
+        <v>117100</v>
+      </c>
+      <c r="K23" s="3">
         <v>39500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>65400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>92600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-119800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15600</v>
+        <v>22100</v>
       </c>
       <c r="E24" s="3">
-        <v>66200</v>
+        <v>15200</v>
       </c>
       <c r="F24" s="3">
-        <v>15200</v>
+        <v>64600</v>
       </c>
       <c r="G24" s="3">
-        <v>13400</v>
+        <v>14900</v>
       </c>
       <c r="H24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
-        <v>17100</v>
-      </c>
       <c r="J24" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K24" s="3">
         <v>10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>119600</v>
+        <v>373800</v>
       </c>
       <c r="E26" s="3">
-        <v>604200</v>
+        <v>116700</v>
       </c>
       <c r="F26" s="3">
-        <v>104700</v>
+        <v>589400</v>
       </c>
       <c r="G26" s="3">
-        <v>64300</v>
+        <v>102100</v>
       </c>
       <c r="H26" s="3">
-        <v>108700</v>
+        <v>62800</v>
       </c>
       <c r="I26" s="3">
-        <v>103000</v>
+        <v>106000</v>
       </c>
       <c r="J26" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K26" s="3">
         <v>29500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>57900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>84400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-112400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-28300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>113600</v>
+        <v>365300</v>
       </c>
       <c r="E27" s="3">
-        <v>599600</v>
+        <v>110800</v>
       </c>
       <c r="F27" s="3">
-        <v>100200</v>
+        <v>584900</v>
       </c>
       <c r="G27" s="3">
-        <v>59000</v>
+        <v>97700</v>
       </c>
       <c r="H27" s="3">
-        <v>104200</v>
+        <v>57500</v>
       </c>
       <c r="I27" s="3">
-        <v>98300</v>
+        <v>101600</v>
       </c>
       <c r="J27" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K27" s="3">
         <v>25000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>52400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>80000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-114000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11500</v>
+        <v>-291700</v>
       </c>
       <c r="E32" s="3">
-        <v>-531500</v>
+        <v>-11200</v>
       </c>
       <c r="F32" s="3">
-        <v>-79500</v>
+        <v>-518500</v>
       </c>
       <c r="G32" s="3">
-        <v>23100</v>
+        <v>-77600</v>
       </c>
       <c r="H32" s="3">
-        <v>-14900</v>
+        <v>22600</v>
       </c>
       <c r="I32" s="3">
-        <v>-13500</v>
+        <v>-14500</v>
       </c>
       <c r="J32" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>165400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>113600</v>
+        <v>365300</v>
       </c>
       <c r="E33" s="3">
-        <v>599600</v>
+        <v>110800</v>
       </c>
       <c r="F33" s="3">
-        <v>100200</v>
+        <v>584900</v>
       </c>
       <c r="G33" s="3">
-        <v>59000</v>
+        <v>97700</v>
       </c>
       <c r="H33" s="3">
-        <v>104200</v>
+        <v>57500</v>
       </c>
       <c r="I33" s="3">
-        <v>98300</v>
+        <v>101600</v>
       </c>
       <c r="J33" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K33" s="3">
         <v>25000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>52400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>80000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-114000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>113600</v>
+        <v>365300</v>
       </c>
       <c r="E35" s="3">
-        <v>599600</v>
+        <v>110800</v>
       </c>
       <c r="F35" s="3">
-        <v>100200</v>
+        <v>584900</v>
       </c>
       <c r="G35" s="3">
-        <v>59000</v>
+        <v>97700</v>
       </c>
       <c r="H35" s="3">
-        <v>104200</v>
+        <v>57500</v>
       </c>
       <c r="I35" s="3">
-        <v>98300</v>
+        <v>101600</v>
       </c>
       <c r="J35" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K35" s="3">
         <v>25000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>52400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>80000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-114000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2052,150 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>243900</v>
+        <v>740800</v>
       </c>
       <c r="E41" s="3">
-        <v>238100</v>
+        <v>238000</v>
       </c>
       <c r="F41" s="3">
-        <v>366800</v>
+        <v>232300</v>
       </c>
       <c r="G41" s="3">
-        <v>342600</v>
+        <v>357800</v>
       </c>
       <c r="H41" s="3">
-        <v>205000</v>
+        <v>334200</v>
       </c>
       <c r="I41" s="3">
-        <v>270800</v>
+        <v>200000</v>
       </c>
       <c r="J41" s="3">
+        <v>264100</v>
+      </c>
+      <c r="K41" s="3">
         <v>214200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>226300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>272200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>385000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>173500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>174600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1108000</v>
+        <v>1187500</v>
       </c>
       <c r="E42" s="3">
-        <v>934400</v>
+        <v>1080800</v>
       </c>
       <c r="F42" s="3">
-        <v>615800</v>
+        <v>911500</v>
       </c>
       <c r="G42" s="3">
-        <v>658200</v>
+        <v>600700</v>
       </c>
       <c r="H42" s="3">
-        <v>706100</v>
+        <v>642100</v>
       </c>
       <c r="I42" s="3">
-        <v>686800</v>
+        <v>688800</v>
       </c>
       <c r="J42" s="3">
+        <v>669900</v>
+      </c>
+      <c r="K42" s="3">
         <v>591100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>510200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>372900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>168300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>169100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>125000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>176900</v>
+        <v>169200</v>
       </c>
       <c r="E43" s="3">
-        <v>157700</v>
+        <v>172600</v>
       </c>
       <c r="F43" s="3">
-        <v>134000</v>
+        <v>153900</v>
       </c>
       <c r="G43" s="3">
-        <v>131600</v>
+        <v>130700</v>
       </c>
       <c r="H43" s="3">
-        <v>130100</v>
+        <v>128400</v>
       </c>
       <c r="I43" s="3">
-        <v>100500</v>
+        <v>126900</v>
       </c>
       <c r="J43" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K43" s="3">
         <v>94700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>99100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>84500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>71800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>61800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2238,246 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>259000</v>
+        <v>392500</v>
       </c>
       <c r="E45" s="3">
-        <v>149700</v>
+        <v>252600</v>
       </c>
       <c r="F45" s="3">
-        <v>247000</v>
+        <v>146000</v>
       </c>
       <c r="G45" s="3">
-        <v>233200</v>
+        <v>240900</v>
       </c>
       <c r="H45" s="3">
-        <v>257300</v>
+        <v>227500</v>
       </c>
       <c r="I45" s="3">
-        <v>261900</v>
+        <v>251000</v>
       </c>
       <c r="J45" s="3">
+        <v>255500</v>
+      </c>
+      <c r="K45" s="3">
         <v>127500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>111400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>210100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>269700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>237200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>229500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1787800</v>
+        <v>2490000</v>
       </c>
       <c r="E46" s="3">
-        <v>1479900</v>
+        <v>1744000</v>
       </c>
       <c r="F46" s="3">
-        <v>1363600</v>
+        <v>1443600</v>
       </c>
       <c r="G46" s="3">
-        <v>1365600</v>
+        <v>1330100</v>
       </c>
       <c r="H46" s="3">
-        <v>1298600</v>
+        <v>1332100</v>
       </c>
       <c r="I46" s="3">
-        <v>1319900</v>
+        <v>1266700</v>
       </c>
       <c r="J46" s="3">
+        <v>1287500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1027500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>947000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>939800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>901800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>651600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>590900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1278200</v>
+        <v>945600</v>
       </c>
       <c r="E47" s="3">
-        <v>1175400</v>
+        <v>1246800</v>
       </c>
       <c r="F47" s="3">
-        <v>620500</v>
+        <v>1146600</v>
       </c>
       <c r="G47" s="3">
-        <v>482900</v>
+        <v>605300</v>
       </c>
       <c r="H47" s="3">
-        <v>473200</v>
+        <v>471100</v>
       </c>
       <c r="I47" s="3">
-        <v>273900</v>
+        <v>461600</v>
       </c>
       <c r="J47" s="3">
+        <v>267100</v>
+      </c>
+      <c r="K47" s="3">
         <v>259800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>268400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>297400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>318000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>307900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>308100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>225300</v>
+        <v>221300</v>
       </c>
       <c r="E48" s="3">
-        <v>223200</v>
+        <v>219800</v>
       </c>
       <c r="F48" s="3">
-        <v>229800</v>
+        <v>217800</v>
       </c>
       <c r="G48" s="3">
-        <v>190800</v>
+        <v>224100</v>
       </c>
       <c r="H48" s="3">
-        <v>190000</v>
+        <v>186100</v>
       </c>
       <c r="I48" s="3">
-        <v>187800</v>
+        <v>185300</v>
       </c>
       <c r="J48" s="3">
+        <v>183200</v>
+      </c>
+      <c r="K48" s="3">
         <v>189700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>200600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>204300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>209700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>208700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>215400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2417200</v>
+        <v>2346300</v>
       </c>
       <c r="E49" s="3">
-        <v>2425200</v>
+        <v>2357900</v>
       </c>
       <c r="F49" s="3">
-        <v>2433300</v>
+        <v>2365700</v>
       </c>
       <c r="G49" s="3">
-        <v>2436000</v>
+        <v>2373600</v>
       </c>
       <c r="H49" s="3">
-        <v>2442600</v>
+        <v>2376200</v>
       </c>
       <c r="I49" s="3">
-        <v>2448700</v>
+        <v>2382700</v>
       </c>
       <c r="J49" s="3">
+        <v>2388600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2456700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2549400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2563400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2571600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2528000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2536300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>381100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>117800</v>
+        <v>65700</v>
       </c>
       <c r="E52" s="3">
-        <v>79900</v>
+        <v>114900</v>
       </c>
       <c r="F52" s="3">
-        <v>76800</v>
+        <v>78000</v>
       </c>
       <c r="G52" s="3">
-        <v>91800</v>
+        <v>74900</v>
       </c>
       <c r="H52" s="3">
-        <v>78300</v>
+        <v>89500</v>
       </c>
       <c r="I52" s="3">
-        <v>99400</v>
+        <v>76400</v>
       </c>
       <c r="J52" s="3">
+        <v>97000</v>
+      </c>
+      <c r="K52" s="3">
         <v>216000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>229600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>163400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>169600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5826300</v>
+        <v>6069000</v>
       </c>
       <c r="E54" s="3">
-        <v>5383700</v>
+        <v>5683400</v>
       </c>
       <c r="F54" s="3">
-        <v>4723900</v>
+        <v>5251600</v>
       </c>
       <c r="G54" s="3">
-        <v>4567100</v>
+        <v>4608000</v>
       </c>
       <c r="H54" s="3">
-        <v>4482600</v>
+        <v>4455000</v>
       </c>
       <c r="I54" s="3">
-        <v>4329600</v>
+        <v>4372600</v>
       </c>
       <c r="J54" s="3">
+        <v>4223400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4149700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4195000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4168200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4170700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3713700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3683200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>549200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>168100</v>
+        <v>145900</v>
       </c>
       <c r="E57" s="3">
-        <v>154500</v>
+        <v>164000</v>
       </c>
       <c r="F57" s="3">
-        <v>139100</v>
+        <v>150700</v>
       </c>
       <c r="G57" s="3">
-        <v>127300</v>
+        <v>135700</v>
       </c>
       <c r="H57" s="3">
-        <v>142100</v>
+        <v>124200</v>
       </c>
       <c r="I57" s="3">
-        <v>135500</v>
+        <v>138600</v>
       </c>
       <c r="J57" s="3">
+        <v>132200</v>
+      </c>
+      <c r="K57" s="3">
         <v>119400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>92700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>89800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>88500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>89000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,131 +2805,140 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>103900</v>
+        <v>5300</v>
       </c>
       <c r="G58" s="3">
-        <v>116600</v>
+        <v>101300</v>
       </c>
       <c r="H58" s="3">
-        <v>116900</v>
+        <v>113800</v>
       </c>
       <c r="I58" s="3">
-        <v>112800</v>
+        <v>114000</v>
       </c>
       <c r="J58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K58" s="3">
         <v>10800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>86300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>158500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>266000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>268000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>937600</v>
+        <v>949300</v>
       </c>
       <c r="E59" s="3">
-        <v>887100</v>
+        <v>914600</v>
       </c>
       <c r="F59" s="3">
-        <v>814300</v>
+        <v>865400</v>
       </c>
       <c r="G59" s="3">
-        <v>801300</v>
+        <v>794300</v>
       </c>
       <c r="H59" s="3">
-        <v>788900</v>
+        <v>781600</v>
       </c>
       <c r="I59" s="3">
-        <v>782900</v>
+        <v>769500</v>
       </c>
       <c r="J59" s="3">
+        <v>763700</v>
+      </c>
+      <c r="K59" s="3">
         <v>728600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>727500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>710800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>688300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>670700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>643600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1105700</v>
+        <v>1095200</v>
       </c>
       <c r="E60" s="3">
-        <v>1047100</v>
+        <v>1078600</v>
       </c>
       <c r="F60" s="3">
-        <v>1057300</v>
+        <v>1021400</v>
       </c>
       <c r="G60" s="3">
-        <v>1045200</v>
+        <v>1031300</v>
       </c>
       <c r="H60" s="3">
-        <v>1047900</v>
+        <v>1019600</v>
       </c>
       <c r="I60" s="3">
-        <v>1031200</v>
+        <v>1022200</v>
       </c>
       <c r="J60" s="3">
+        <v>1005900</v>
+      </c>
+      <c r="K60" s="3">
         <v>858700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>831200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>886900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>947100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1025200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>146700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,78 +2955,84 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="J61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K61" s="3">
         <v>107700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>115400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>128100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>130300</v>
-      </c>
-      <c r="N61" s="3">
-        <v>21800</v>
       </c>
       <c r="O61" s="3">
         <v>21800</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+        <v>21800</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>108000</v>
+        <v>73900</v>
       </c>
       <c r="E62" s="3">
-        <v>106600</v>
+        <v>105400</v>
       </c>
       <c r="F62" s="3">
-        <v>68000</v>
+        <v>103900</v>
       </c>
       <c r="G62" s="3">
-        <v>40900</v>
+        <v>66300</v>
       </c>
       <c r="H62" s="3">
-        <v>42400</v>
+        <v>39900</v>
       </c>
       <c r="I62" s="3">
-        <v>42500</v>
+        <v>41400</v>
       </c>
       <c r="J62" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K62" s="3">
         <v>45400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>57700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>64500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1787100</v>
+        <v>1739800</v>
       </c>
       <c r="E66" s="3">
-        <v>1487900</v>
+        <v>1743200</v>
       </c>
       <c r="F66" s="3">
-        <v>1446800</v>
+        <v>1451300</v>
       </c>
       <c r="G66" s="3">
-        <v>1407600</v>
+        <v>1411300</v>
       </c>
       <c r="H66" s="3">
-        <v>1401200</v>
+        <v>1373000</v>
       </c>
       <c r="I66" s="3">
-        <v>1368400</v>
+        <v>1366800</v>
       </c>
       <c r="J66" s="3">
+        <v>1334800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1281400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1287200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1335200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1412300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1127700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1109300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>159600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>892100</v>
+        <v>1244600</v>
       </c>
       <c r="E72" s="3">
-        <v>772500</v>
+        <v>870200</v>
       </c>
       <c r="F72" s="3">
-        <v>168100</v>
+        <v>753600</v>
       </c>
       <c r="G72" s="3">
-        <v>63100</v>
+        <v>163900</v>
       </c>
       <c r="H72" s="3">
-        <v>-900</v>
+        <v>61500</v>
       </c>
       <c r="I72" s="3">
-        <v>-109900</v>
+        <v>-800</v>
       </c>
       <c r="J72" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-212800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-250800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-317100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-374200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-449100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-446600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-67200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4039300</v>
+        <v>4329200</v>
       </c>
       <c r="E76" s="3">
-        <v>3895900</v>
+        <v>3940200</v>
       </c>
       <c r="F76" s="3">
-        <v>3277100</v>
+        <v>3800300</v>
       </c>
       <c r="G76" s="3">
-        <v>3159500</v>
+        <v>3196700</v>
       </c>
       <c r="H76" s="3">
-        <v>3081500</v>
+        <v>3082000</v>
       </c>
       <c r="I76" s="3">
-        <v>2961300</v>
+        <v>3005900</v>
       </c>
       <c r="J76" s="3">
+        <v>2888600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2868300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2907900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2833000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2758500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2586000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2573900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>389500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>113600</v>
+        <v>365300</v>
       </c>
       <c r="E81" s="3">
-        <v>599600</v>
+        <v>110800</v>
       </c>
       <c r="F81" s="3">
-        <v>100200</v>
+        <v>584900</v>
       </c>
       <c r="G81" s="3">
-        <v>59000</v>
+        <v>97700</v>
       </c>
       <c r="H81" s="3">
-        <v>104200</v>
+        <v>57500</v>
       </c>
       <c r="I81" s="3">
-        <v>98300</v>
+        <v>101600</v>
       </c>
       <c r="J81" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K81" s="3">
         <v>25000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>52400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>80000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-114000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4105,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>165200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>148300</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>216900</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>79100</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WUBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WUBA_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>581600</v>
+        <v>603500</v>
       </c>
       <c r="E8" s="3">
-        <v>595900</v>
+        <v>618400</v>
       </c>
       <c r="F8" s="3">
-        <v>578700</v>
+        <v>600500</v>
       </c>
       <c r="G8" s="3">
-        <v>423800</v>
+        <v>439800</v>
       </c>
       <c r="H8" s="3">
-        <v>505200</v>
+        <v>524200</v>
       </c>
       <c r="I8" s="3">
-        <v>507600</v>
+        <v>526700</v>
       </c>
       <c r="J8" s="3">
-        <v>480100</v>
+        <v>498200</v>
       </c>
       <c r="K8" s="3">
         <v>354600</v>
@@ -787,25 +787,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>79200</v>
+        <v>82200</v>
       </c>
       <c r="E9" s="3">
-        <v>70100</v>
+        <v>72800</v>
       </c>
       <c r="F9" s="3">
-        <v>60800</v>
+        <v>63100</v>
       </c>
       <c r="G9" s="3">
-        <v>41500</v>
+        <v>43100</v>
       </c>
       <c r="H9" s="3">
-        <v>64100</v>
+        <v>66500</v>
       </c>
       <c r="I9" s="3">
-        <v>53300</v>
+        <v>55300</v>
       </c>
       <c r="J9" s="3">
-        <v>47800</v>
+        <v>49600</v>
       </c>
       <c r="K9" s="3">
         <v>37000</v>
@@ -834,25 +834,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>502400</v>
+        <v>521300</v>
       </c>
       <c r="E10" s="3">
-        <v>525800</v>
+        <v>545600</v>
       </c>
       <c r="F10" s="3">
-        <v>517900</v>
+        <v>537400</v>
       </c>
       <c r="G10" s="3">
-        <v>382300</v>
+        <v>396700</v>
       </c>
       <c r="H10" s="3">
-        <v>441100</v>
+        <v>457700</v>
       </c>
       <c r="I10" s="3">
-        <v>454300</v>
+        <v>471400</v>
       </c>
       <c r="J10" s="3">
-        <v>432300</v>
+        <v>448600</v>
       </c>
       <c r="K10" s="3">
         <v>317600</v>
@@ -900,25 +900,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>78500</v>
+        <v>81400</v>
       </c>
       <c r="E12" s="3">
-        <v>71200</v>
+        <v>73900</v>
       </c>
       <c r="F12" s="3">
-        <v>65800</v>
+        <v>68300</v>
       </c>
       <c r="G12" s="3">
-        <v>67600</v>
+        <v>70100</v>
       </c>
       <c r="H12" s="3">
-        <v>69100</v>
+        <v>71700</v>
       </c>
       <c r="I12" s="3">
-        <v>64000</v>
+        <v>66400</v>
       </c>
       <c r="J12" s="3">
-        <v>53500</v>
+        <v>55500</v>
       </c>
       <c r="K12" s="3">
         <v>48000</v>
@@ -1044,22 +1044,22 @@
         <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F15" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="G15" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="J15" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="K15" s="3">
         <v>7900</v>
@@ -1104,25 +1104,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>477400</v>
+        <v>495300</v>
       </c>
       <c r="E17" s="3">
-        <v>475300</v>
+        <v>493200</v>
       </c>
       <c r="F17" s="3">
-        <v>443200</v>
+        <v>459900</v>
       </c>
       <c r="G17" s="3">
-        <v>384500</v>
+        <v>398900</v>
       </c>
       <c r="H17" s="3">
-        <v>406800</v>
+        <v>422100</v>
       </c>
       <c r="I17" s="3">
-        <v>413800</v>
+        <v>429300</v>
       </c>
       <c r="J17" s="3">
-        <v>376200</v>
+        <v>390300</v>
       </c>
       <c r="K17" s="3">
         <v>316300</v>
@@ -1151,25 +1151,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>104200</v>
+        <v>108200</v>
       </c>
       <c r="E18" s="3">
-        <v>120700</v>
+        <v>125200</v>
       </c>
       <c r="F18" s="3">
-        <v>135400</v>
+        <v>140500</v>
       </c>
       <c r="G18" s="3">
-        <v>39400</v>
+        <v>40900</v>
       </c>
       <c r="H18" s="3">
-        <v>98400</v>
+        <v>102100</v>
       </c>
       <c r="I18" s="3">
-        <v>93900</v>
+        <v>97400</v>
       </c>
       <c r="J18" s="3">
-        <v>104000</v>
+        <v>107900</v>
       </c>
       <c r="K18" s="3">
         <v>38300</v>
@@ -1217,25 +1217,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>291700</v>
+        <v>302700</v>
       </c>
       <c r="E20" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="F20" s="3">
-        <v>518500</v>
+        <v>538000</v>
       </c>
       <c r="G20" s="3">
-        <v>77600</v>
+        <v>80500</v>
       </c>
       <c r="H20" s="3">
-        <v>-22600</v>
+        <v>-23400</v>
       </c>
       <c r="I20" s="3">
-        <v>14500</v>
+        <v>15100</v>
       </c>
       <c r="J20" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="K20" s="3">
         <v>1300</v>
@@ -1264,16 +1264,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>396200</v>
+        <v>411100</v>
       </c>
       <c r="E21" s="3">
-        <v>131900</v>
+        <v>136800</v>
       </c>
       <c r="F21" s="3">
-        <v>654000</v>
+        <v>678600</v>
       </c>
       <c r="G21" s="3">
-        <v>124600</v>
+        <v>129300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1358,25 +1358,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>396000</v>
+        <v>410900</v>
       </c>
       <c r="E23" s="3">
-        <v>131900</v>
+        <v>136900</v>
       </c>
       <c r="F23" s="3">
-        <v>653900</v>
+        <v>678600</v>
       </c>
       <c r="G23" s="3">
-        <v>117000</v>
+        <v>121400</v>
       </c>
       <c r="H23" s="3">
-        <v>75800</v>
+        <v>78700</v>
       </c>
       <c r="I23" s="3">
-        <v>108400</v>
+        <v>112400</v>
       </c>
       <c r="J23" s="3">
-        <v>117100</v>
+        <v>121600</v>
       </c>
       <c r="K23" s="3">
         <v>39500</v>
@@ -1405,25 +1405,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22100</v>
+        <v>23000</v>
       </c>
       <c r="E24" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="F24" s="3">
-        <v>64600</v>
+        <v>67000</v>
       </c>
       <c r="G24" s="3">
-        <v>14900</v>
+        <v>15400</v>
       </c>
       <c r="H24" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="I24" s="3">
         <v>2400</v>
       </c>
       <c r="J24" s="3">
-        <v>16700</v>
+        <v>17300</v>
       </c>
       <c r="K24" s="3">
         <v>10100</v>
@@ -1499,25 +1499,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>373800</v>
+        <v>387900</v>
       </c>
       <c r="E26" s="3">
-        <v>116700</v>
+        <v>121100</v>
       </c>
       <c r="F26" s="3">
-        <v>589400</v>
+        <v>611600</v>
       </c>
       <c r="G26" s="3">
-        <v>102100</v>
+        <v>106000</v>
       </c>
       <c r="H26" s="3">
-        <v>62800</v>
+        <v>65100</v>
       </c>
       <c r="I26" s="3">
-        <v>106000</v>
+        <v>110000</v>
       </c>
       <c r="J26" s="3">
-        <v>100400</v>
+        <v>104200</v>
       </c>
       <c r="K26" s="3">
         <v>29500</v>
@@ -1546,25 +1546,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>365300</v>
+        <v>379000</v>
       </c>
       <c r="E27" s="3">
-        <v>110800</v>
+        <v>115000</v>
       </c>
       <c r="F27" s="3">
-        <v>584900</v>
+        <v>606900</v>
       </c>
       <c r="G27" s="3">
-        <v>97700</v>
+        <v>101400</v>
       </c>
       <c r="H27" s="3">
-        <v>57500</v>
+        <v>59700</v>
       </c>
       <c r="I27" s="3">
-        <v>101600</v>
+        <v>105500</v>
       </c>
       <c r="J27" s="3">
-        <v>95900</v>
+        <v>99500</v>
       </c>
       <c r="K27" s="3">
         <v>25000</v>
@@ -1781,25 +1781,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-291700</v>
+        <v>-302700</v>
       </c>
       <c r="E32" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="F32" s="3">
-        <v>-518500</v>
+        <v>-538000</v>
       </c>
       <c r="G32" s="3">
-        <v>-77600</v>
+        <v>-80500</v>
       </c>
       <c r="H32" s="3">
-        <v>22600</v>
+        <v>23400</v>
       </c>
       <c r="I32" s="3">
-        <v>-14500</v>
+        <v>-15100</v>
       </c>
       <c r="J32" s="3">
-        <v>-13200</v>
+        <v>-13700</v>
       </c>
       <c r="K32" s="3">
         <v>-1300</v>
@@ -1828,25 +1828,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>365300</v>
+        <v>379000</v>
       </c>
       <c r="E33" s="3">
-        <v>110800</v>
+        <v>115000</v>
       </c>
       <c r="F33" s="3">
-        <v>584900</v>
+        <v>606900</v>
       </c>
       <c r="G33" s="3">
-        <v>97700</v>
+        <v>101400</v>
       </c>
       <c r="H33" s="3">
-        <v>57500</v>
+        <v>59700</v>
       </c>
       <c r="I33" s="3">
-        <v>101600</v>
+        <v>105500</v>
       </c>
       <c r="J33" s="3">
-        <v>95900</v>
+        <v>99500</v>
       </c>
       <c r="K33" s="3">
         <v>25000</v>
@@ -1922,25 +1922,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>365300</v>
+        <v>379000</v>
       </c>
       <c r="E35" s="3">
-        <v>110800</v>
+        <v>115000</v>
       </c>
       <c r="F35" s="3">
-        <v>584900</v>
+        <v>606900</v>
       </c>
       <c r="G35" s="3">
-        <v>97700</v>
+        <v>101400</v>
       </c>
       <c r="H35" s="3">
-        <v>57500</v>
+        <v>59700</v>
       </c>
       <c r="I35" s="3">
-        <v>101600</v>
+        <v>105500</v>
       </c>
       <c r="J35" s="3">
-        <v>95900</v>
+        <v>99500</v>
       </c>
       <c r="K35" s="3">
         <v>25000</v>
@@ -2059,25 +2059,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>740800</v>
+        <v>768700</v>
       </c>
       <c r="E41" s="3">
-        <v>238000</v>
+        <v>246900</v>
       </c>
       <c r="F41" s="3">
-        <v>232300</v>
+        <v>241000</v>
       </c>
       <c r="G41" s="3">
-        <v>357800</v>
+        <v>371200</v>
       </c>
       <c r="H41" s="3">
-        <v>334200</v>
+        <v>346700</v>
       </c>
       <c r="I41" s="3">
-        <v>200000</v>
+        <v>207500</v>
       </c>
       <c r="J41" s="3">
-        <v>264100</v>
+        <v>274100</v>
       </c>
       <c r="K41" s="3">
         <v>214200</v>
@@ -2106,25 +2106,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1187500</v>
+        <v>1232200</v>
       </c>
       <c r="E42" s="3">
-        <v>1080800</v>
+        <v>1121500</v>
       </c>
       <c r="F42" s="3">
-        <v>911500</v>
+        <v>945800</v>
       </c>
       <c r="G42" s="3">
-        <v>600700</v>
+        <v>623300</v>
       </c>
       <c r="H42" s="3">
-        <v>642100</v>
+        <v>666300</v>
       </c>
       <c r="I42" s="3">
-        <v>688800</v>
+        <v>714700</v>
       </c>
       <c r="J42" s="3">
-        <v>669900</v>
+        <v>695100</v>
       </c>
       <c r="K42" s="3">
         <v>591100</v>
@@ -2153,25 +2153,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>169200</v>
+        <v>175600</v>
       </c>
       <c r="E43" s="3">
-        <v>172600</v>
+        <v>179100</v>
       </c>
       <c r="F43" s="3">
-        <v>153900</v>
+        <v>159600</v>
       </c>
       <c r="G43" s="3">
-        <v>130700</v>
+        <v>135700</v>
       </c>
       <c r="H43" s="3">
-        <v>128400</v>
+        <v>133200</v>
       </c>
       <c r="I43" s="3">
-        <v>126900</v>
+        <v>131600</v>
       </c>
       <c r="J43" s="3">
-        <v>98000</v>
+        <v>101700</v>
       </c>
       <c r="K43" s="3">
         <v>94700</v>
@@ -2247,25 +2247,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>392500</v>
+        <v>407200</v>
       </c>
       <c r="E45" s="3">
-        <v>252600</v>
+        <v>262100</v>
       </c>
       <c r="F45" s="3">
-        <v>146000</v>
+        <v>151500</v>
       </c>
       <c r="G45" s="3">
-        <v>240900</v>
+        <v>250000</v>
       </c>
       <c r="H45" s="3">
-        <v>227500</v>
+        <v>236100</v>
       </c>
       <c r="I45" s="3">
-        <v>251000</v>
+        <v>260500</v>
       </c>
       <c r="J45" s="3">
-        <v>255500</v>
+        <v>265100</v>
       </c>
       <c r="K45" s="3">
         <v>127500</v>
@@ -2294,25 +2294,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2490000</v>
+        <v>2583800</v>
       </c>
       <c r="E46" s="3">
-        <v>1744000</v>
+        <v>1809600</v>
       </c>
       <c r="F46" s="3">
-        <v>1443600</v>
+        <v>1497900</v>
       </c>
       <c r="G46" s="3">
-        <v>1330100</v>
+        <v>1380200</v>
       </c>
       <c r="H46" s="3">
-        <v>1332100</v>
+        <v>1382300</v>
       </c>
       <c r="I46" s="3">
-        <v>1266700</v>
+        <v>1314400</v>
       </c>
       <c r="J46" s="3">
-        <v>1287500</v>
+        <v>1336000</v>
       </c>
       <c r="K46" s="3">
         <v>1027500</v>
@@ -2341,25 +2341,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>945600</v>
+        <v>981200</v>
       </c>
       <c r="E47" s="3">
-        <v>1246800</v>
+        <v>1293800</v>
       </c>
       <c r="F47" s="3">
-        <v>1146600</v>
+        <v>1189800</v>
       </c>
       <c r="G47" s="3">
-        <v>605300</v>
+        <v>628100</v>
       </c>
       <c r="H47" s="3">
-        <v>471100</v>
+        <v>488800</v>
       </c>
       <c r="I47" s="3">
-        <v>461600</v>
+        <v>479000</v>
       </c>
       <c r="J47" s="3">
-        <v>267100</v>
+        <v>277200</v>
       </c>
       <c r="K47" s="3">
         <v>259800</v>
@@ -2388,25 +2388,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>221300</v>
+        <v>229600</v>
       </c>
       <c r="E48" s="3">
-        <v>219800</v>
+        <v>228100</v>
       </c>
       <c r="F48" s="3">
-        <v>217800</v>
+        <v>226000</v>
       </c>
       <c r="G48" s="3">
-        <v>224100</v>
+        <v>232600</v>
       </c>
       <c r="H48" s="3">
-        <v>186100</v>
+        <v>193100</v>
       </c>
       <c r="I48" s="3">
-        <v>185300</v>
+        <v>192300</v>
       </c>
       <c r="J48" s="3">
-        <v>183200</v>
+        <v>190100</v>
       </c>
       <c r="K48" s="3">
         <v>189700</v>
@@ -2435,25 +2435,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2346300</v>
+        <v>2434700</v>
       </c>
       <c r="E49" s="3">
-        <v>2357900</v>
+        <v>2446700</v>
       </c>
       <c r="F49" s="3">
-        <v>2365700</v>
+        <v>2454800</v>
       </c>
       <c r="G49" s="3">
-        <v>2373600</v>
+        <v>2463000</v>
       </c>
       <c r="H49" s="3">
-        <v>2376200</v>
+        <v>2465700</v>
       </c>
       <c r="I49" s="3">
-        <v>2382700</v>
+        <v>2472400</v>
       </c>
       <c r="J49" s="3">
-        <v>2388600</v>
+        <v>2478600</v>
       </c>
       <c r="K49" s="3">
         <v>2456700</v>
@@ -2576,25 +2576,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65700</v>
+        <v>68200</v>
       </c>
       <c r="E52" s="3">
-        <v>114900</v>
+        <v>119200</v>
       </c>
       <c r="F52" s="3">
-        <v>78000</v>
+        <v>80900</v>
       </c>
       <c r="G52" s="3">
-        <v>74900</v>
+        <v>77700</v>
       </c>
       <c r="H52" s="3">
-        <v>89500</v>
+        <v>92900</v>
       </c>
       <c r="I52" s="3">
-        <v>76400</v>
+        <v>79200</v>
       </c>
       <c r="J52" s="3">
-        <v>97000</v>
+        <v>100600</v>
       </c>
       <c r="K52" s="3">
         <v>216000</v>
@@ -2670,25 +2670,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6069000</v>
+        <v>6297500</v>
       </c>
       <c r="E54" s="3">
-        <v>5683400</v>
+        <v>5897400</v>
       </c>
       <c r="F54" s="3">
-        <v>5251600</v>
+        <v>5449400</v>
       </c>
       <c r="G54" s="3">
-        <v>4608000</v>
+        <v>4781500</v>
       </c>
       <c r="H54" s="3">
-        <v>4455000</v>
+        <v>4622800</v>
       </c>
       <c r="I54" s="3">
-        <v>4372600</v>
+        <v>4537300</v>
       </c>
       <c r="J54" s="3">
-        <v>4223400</v>
+        <v>4382500</v>
       </c>
       <c r="K54" s="3">
         <v>4149700</v>
@@ -2755,25 +2755,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145900</v>
+        <v>151400</v>
       </c>
       <c r="E57" s="3">
-        <v>164000</v>
+        <v>170100</v>
       </c>
       <c r="F57" s="3">
-        <v>150700</v>
+        <v>156300</v>
       </c>
       <c r="G57" s="3">
-        <v>135700</v>
+        <v>140800</v>
       </c>
       <c r="H57" s="3">
-        <v>124200</v>
+        <v>128900</v>
       </c>
       <c r="I57" s="3">
-        <v>138600</v>
+        <v>143800</v>
       </c>
       <c r="J57" s="3">
-        <v>132200</v>
+        <v>137200</v>
       </c>
       <c r="K57" s="3">
         <v>119400</v>
@@ -2808,19 +2808,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="G58" s="3">
-        <v>101300</v>
+        <v>105100</v>
       </c>
       <c r="H58" s="3">
-        <v>113800</v>
+        <v>118000</v>
       </c>
       <c r="I58" s="3">
-        <v>114000</v>
+        <v>118300</v>
       </c>
       <c r="J58" s="3">
-        <v>110000</v>
+        <v>114200</v>
       </c>
       <c r="K58" s="3">
         <v>10800</v>
@@ -2849,25 +2849,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>949300</v>
+        <v>985100</v>
       </c>
       <c r="E59" s="3">
-        <v>914600</v>
+        <v>949000</v>
       </c>
       <c r="F59" s="3">
-        <v>865400</v>
+        <v>898000</v>
       </c>
       <c r="G59" s="3">
-        <v>794300</v>
+        <v>824200</v>
       </c>
       <c r="H59" s="3">
-        <v>781600</v>
+        <v>811000</v>
       </c>
       <c r="I59" s="3">
-        <v>769500</v>
+        <v>798500</v>
       </c>
       <c r="J59" s="3">
-        <v>763700</v>
+        <v>792500</v>
       </c>
       <c r="K59" s="3">
         <v>728600</v>
@@ -2896,25 +2896,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1095200</v>
+        <v>1136500</v>
       </c>
       <c r="E60" s="3">
-        <v>1078600</v>
+        <v>1119200</v>
       </c>
       <c r="F60" s="3">
-        <v>1021400</v>
+        <v>1059800</v>
       </c>
       <c r="G60" s="3">
-        <v>1031300</v>
+        <v>1070200</v>
       </c>
       <c r="H60" s="3">
-        <v>1019600</v>
+        <v>1058000</v>
       </c>
       <c r="I60" s="3">
-        <v>1022200</v>
+        <v>1060700</v>
       </c>
       <c r="J60" s="3">
-        <v>1005900</v>
+        <v>1043800</v>
       </c>
       <c r="K60" s="3">
         <v>858700</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J61" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="K61" s="3">
         <v>107700</v>
@@ -2990,25 +2990,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>73900</v>
+        <v>76700</v>
       </c>
       <c r="E62" s="3">
-        <v>105400</v>
+        <v>109400</v>
       </c>
       <c r="F62" s="3">
-        <v>103900</v>
+        <v>107900</v>
       </c>
       <c r="G62" s="3">
-        <v>66300</v>
+        <v>68800</v>
       </c>
       <c r="H62" s="3">
-        <v>39900</v>
+        <v>41400</v>
       </c>
       <c r="I62" s="3">
-        <v>41400</v>
+        <v>43000</v>
       </c>
       <c r="J62" s="3">
-        <v>41500</v>
+        <v>43000</v>
       </c>
       <c r="K62" s="3">
         <v>45400</v>
@@ -3178,25 +3178,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1739800</v>
+        <v>1805300</v>
       </c>
       <c r="E66" s="3">
-        <v>1743200</v>
+        <v>1808900</v>
       </c>
       <c r="F66" s="3">
-        <v>1451300</v>
+        <v>1506000</v>
       </c>
       <c r="G66" s="3">
-        <v>1411300</v>
+        <v>1464400</v>
       </c>
       <c r="H66" s="3">
-        <v>1373000</v>
+        <v>1424700</v>
       </c>
       <c r="I66" s="3">
-        <v>1366800</v>
+        <v>1418200</v>
       </c>
       <c r="J66" s="3">
-        <v>1334800</v>
+        <v>1385000</v>
       </c>
       <c r="K66" s="3">
         <v>1281400</v>
@@ -3432,25 +3432,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1244600</v>
+        <v>1291500</v>
       </c>
       <c r="E72" s="3">
-        <v>870200</v>
+        <v>903000</v>
       </c>
       <c r="F72" s="3">
-        <v>753600</v>
+        <v>781900</v>
       </c>
       <c r="G72" s="3">
-        <v>163900</v>
+        <v>170100</v>
       </c>
       <c r="H72" s="3">
-        <v>61500</v>
+        <v>63800</v>
       </c>
       <c r="I72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J72" s="3">
-        <v>-107200</v>
+        <v>-111300</v>
       </c>
       <c r="K72" s="3">
         <v>-212800</v>
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4329200</v>
+        <v>4492200</v>
       </c>
       <c r="E76" s="3">
-        <v>3940200</v>
+        <v>4088500</v>
       </c>
       <c r="F76" s="3">
-        <v>3800300</v>
+        <v>3943400</v>
       </c>
       <c r="G76" s="3">
-        <v>3196700</v>
+        <v>3317100</v>
       </c>
       <c r="H76" s="3">
-        <v>3082000</v>
+        <v>3198000</v>
       </c>
       <c r="I76" s="3">
-        <v>3005900</v>
+        <v>3119000</v>
       </c>
       <c r="J76" s="3">
-        <v>2888600</v>
+        <v>2997400</v>
       </c>
       <c r="K76" s="3">
         <v>2868300</v>
@@ -3766,25 +3766,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>365300</v>
+        <v>379000</v>
       </c>
       <c r="E81" s="3">
-        <v>110800</v>
+        <v>115000</v>
       </c>
       <c r="F81" s="3">
-        <v>584900</v>
+        <v>606900</v>
       </c>
       <c r="G81" s="3">
-        <v>97700</v>
+        <v>101400</v>
       </c>
       <c r="H81" s="3">
-        <v>57500</v>
+        <v>59700</v>
       </c>
       <c r="I81" s="3">
-        <v>101600</v>
+        <v>105500</v>
       </c>
       <c r="J81" s="3">
-        <v>95900</v>
+        <v>99500</v>
       </c>
       <c r="K81" s="3">
         <v>25000</v>
@@ -4114,16 +4114,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>165200</v>
+        <v>171400</v>
       </c>
       <c r="E89" s="3">
-        <v>148300</v>
+        <v>153900</v>
       </c>
       <c r="F89" s="3">
-        <v>216900</v>
+        <v>225100</v>
       </c>
       <c r="G89" s="3">
-        <v>79100</v>
+        <v>82000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>10</v>
